--- a/biology/Zoologie/Clanis_pratti/Clanis_pratti.xlsx
+++ b/biology/Zoologie/Clanis_pratti/Clanis_pratti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Clanis pratti regroupe des insectes lépidoptères de la famille des Sphingidae, sous-famille des Sphinginae, de la tribu des Sphingini et du genre Clanis.
 </t>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 L'espèce est connue au Sulawesi et dans les îles environnantes.
@@ -570,9 +586,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par les entomologistes britanniques James John Joicey &amp; George Talbot en 1921[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce a été décrite par les entomologistes britanniques James John Joicey &amp; George Talbot en 1921.
 La localité type est la région de N. Manusela, Central Ceram.</t>
         </is>
       </c>
@@ -601,10 +619,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Clanis pratti pratti Eitschberger, 2004 [2]
-Clanis pratti okurai Cadiou &amp; Holloway 1989[3]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Clanis pratti pratti Eitschberger, 2004 
+Clanis pratti okurai Cadiou &amp; Holloway 1989</t>
         </is>
       </c>
     </row>
